--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreek\eclipse-workspace\opencartTraining\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229A9B3D-B1D8-4F07-B509-7EE54AF5196E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6ED67310-BB49-4F44-894F-67BA7D54B3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -168,9 +164,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +204,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -314,7 +310,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -456,7 +452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,7 +463,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -518,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
